--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,37 +491,321 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45876.35072060609</v>
+        <v>45846</v>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
       </c>
       <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45846.04166666666</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="E3" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45846.08333333334</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NW</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45846.125</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="E5" t="n">
+        <v>90.53</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45846.16666666666</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45846.20833333334</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="E7" t="n">
+        <v>92.37</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NW</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45846.25</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.51000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45846.29166666666</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="E9" t="n">
+        <v>92.79000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45846.33333333334</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>92.93000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45876.37517238504</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C11" t="n">
         <v>28</v>
       </c>
-      <c r="D2" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="E2" t="n">
-        <v>92.84</v>
-      </c>
-      <c r="F2" t="n">
-        <v>65.04000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>08:25:02</t>
+      <c r="D11" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>93.12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>110.74</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>09:00:14</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45846</v>
+        <v>45876.00017361111</v>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45846.04166666666</v>
+        <v>45876.04184027778</v>
       </c>
       <c r="B3" t="n">
         <v>2025</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45846.08333333334</v>
+        <v>45876.08350694444</v>
       </c>
       <c r="B4" t="n">
         <v>2025</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45846.125</v>
+        <v>45876.12517361111</v>
       </c>
       <c r="B5" t="n">
         <v>2025</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45846.16666666666</v>
+        <v>45876.16684027778</v>
       </c>
       <c r="B6" t="n">
         <v>2025</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45846.20833333334</v>
+        <v>45876.20850694444</v>
       </c>
       <c r="B7" t="n">
         <v>2025</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45846.25</v>
+        <v>45876.25017361111</v>
       </c>
       <c r="B8" t="n">
         <v>2025</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45846.29166666666</v>
+        <v>45876.29184027778</v>
       </c>
       <c r="B9" t="n">
         <v>2025</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45846.33333333334</v>
+        <v>45876.33350694444</v>
       </c>
       <c r="B10" t="n">
         <v>2025</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45876.37517238504</v>
+        <v>45876.37517238426</v>
       </c>
       <c r="B11" t="n">
         <v>2025</v>
@@ -806,6 +806,42 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>09:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45876.41687603376</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="E12" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>472.85</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>10:00:18</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +811,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45876.41687603376</v>
+        <v>45876.41687603009</v>
       </c>
       <c r="B12" t="n">
         <v>2025</v>
@@ -842,6 +842,42 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>10:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45876.4585312047</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="E13" t="n">
+        <v>81.63</v>
+      </c>
+      <c r="F13" t="n">
+        <v>580.08</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>11:00:17</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,7 +847,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45876.4585312047</v>
+        <v>45876.4585312037</v>
       </c>
       <c r="B13" t="n">
         <v>2025</v>
@@ -878,6 +878,42 @@
       <c r="J13" t="inlineStr">
         <is>
           <t>11:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45876.50018915661</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C14" t="n">
+        <v>28</v>
+      </c>
+      <c r="D14" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="E14" t="n">
+        <v>78.45999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>631.05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>12:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -883,7 +883,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45876.50018915661</v>
+        <v>45876.50018915509</v>
       </c>
       <c r="B14" t="n">
         <v>2025</v>
@@ -914,6 +914,42 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>12:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45876.54187708682</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C15" t="n">
+        <v>28</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21</v>
+      </c>
+      <c r="E15" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="F15" t="n">
+        <v>620.51</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>13:00:18</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45876.54187708682</v>
+        <v>45876.54187708333</v>
       </c>
       <c r="B15" t="n">
         <v>2025</v>
@@ -950,6 +950,42 @@
       <c r="J15" t="inlineStr">
         <is>
           <t>13:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45876.58349000412</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="E16" t="n">
+        <v>74.63</v>
+      </c>
+      <c r="F16" t="n">
+        <v>68.55</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>14:00:13</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,7 +955,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45876.58349000412</v>
+        <v>45876.58349</v>
       </c>
       <c r="B16" t="n">
         <v>2025</v>
@@ -986,6 +986,42 @@
       <c r="J16" t="inlineStr">
         <is>
           <t>14:00:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45876.62519435577</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="E17" t="n">
+        <v>78.55</v>
+      </c>
+      <c r="F17" t="n">
+        <v>450</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>15:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,7 +991,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45876.62519435577</v>
+        <v>45876.62519435185</v>
       </c>
       <c r="B17" t="n">
         <v>2025</v>
@@ -1022,6 +1022,42 @@
       <c r="J17" t="inlineStr">
         <is>
           <t>15:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45876.66685023394</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C18" t="n">
+        <v>28</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="E18" t="n">
+        <v>84.06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>166.99</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>16:00:15</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45876.66685023394</v>
+        <v>45876.66685023148</v>
       </c>
       <c r="B18" t="n">
         <v>2025</v>
@@ -1058,6 +1058,42 @@
       <c r="J18" t="inlineStr">
         <is>
           <t>16:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45876.70856442262</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C19" t="n">
+        <v>28</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="E19" t="n">
+        <v>84.43000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>144.14</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>17:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45876.70856442262</v>
+        <v>45876.70856442129</v>
       </c>
       <c r="B19" t="n">
         <v>2025</v>
@@ -1094,6 +1094,42 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>17:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45876.75020091004</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C20" t="n">
+        <v>28</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="E20" t="n">
+        <v>84.15000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>18:00:17</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45876.75020091004</v>
+        <v>45876.75020091435</v>
       </c>
       <c r="B20" t="n">
         <v>2025</v>
@@ -1130,6 +1130,42 @@
       <c r="J20" t="inlineStr">
         <is>
           <t>18:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45876.79187491632</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C21" t="n">
+        <v>28</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="E21" t="n">
+        <v>88.45</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>19:00:17</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45876.79187491632</v>
+        <v>45876.79187491898</v>
       </c>
       <c r="B21" t="n">
         <v>2025</v>
@@ -1166,6 +1166,42 @@
       <c r="J21" t="inlineStr">
         <is>
           <t>19:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45876.83356961413</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="E22" t="n">
+        <v>89.76000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20:00:20</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45876.83356961413</v>
+        <v>45876.83356961806</v>
       </c>
       <c r="B22" t="n">
         <v>2025</v>
@@ -1202,6 +1202,42 @@
       <c r="J22" t="inlineStr">
         <is>
           <t>20:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45876.87520870067</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C23" t="n">
+        <v>28</v>
+      </c>
+      <c r="D23" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="E23" t="n">
+        <v>90.31999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>21:00:18</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45876.87520870067</v>
+        <v>45876.87520870371</v>
       </c>
       <c r="B23" t="n">
         <v>2025</v>
@@ -1238,6 +1238,42 @@
       <c r="J23" t="inlineStr">
         <is>
           <t>21:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45876.91711516142</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C24" t="n">
+        <v>28</v>
+      </c>
+      <c r="D24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>22:00:38</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-07.xlsx
+++ b/datos_dropcontrol/2025-08-07.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45876.91711516142</v>
+        <v>45876.91711516204</v>
       </c>
       <c r="B24" t="n">
         <v>2025</v>
@@ -1274,6 +1274,42 @@
       <c r="J24" t="inlineStr">
         <is>
           <t>22:00:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45876.95855033756</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C25" t="n">
+        <v>28</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="E25" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>23:00:18</t>
         </is>
       </c>
     </row>
